--- a/biology/Médecine/Sages_et_rebelles/Sages_et_rebelles.xlsx
+++ b/biology/Médecine/Sages_et_rebelles/Sages_et_rebelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sages et rebelles est un film documentaire canadien dressant le portrait des sages-femmes au Canada, réalisé par Claudie Simard et sorti en 2023[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sages et rebelles est un film documentaire canadien dressant le portrait des sages-femmes au Canada, réalisé par Claudie Simard et sorti en 2023.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film traite de la pratique sage-femme dans plusieurs régions du Québec, ainsi qu'en Colombie-Britannique, au Canada[2]. Malgré une demande grandissante pour les services des sages-femmes à travers tout le pays, l'accès à ces professionnelles de la santé reste limité au Québec, même si leur profession a été légalisée il y a plus de 20 ans[3]. Le documentaire met en lumière la réalité quotidienne des sages-femmes et permet une meilleure prise de conscience de leur expertise, souvent méconnue. Le film soulève également un questionnement plus vaste sur les conditions actuelles d'accouchement[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film traite de la pratique sage-femme dans plusieurs régions du Québec, ainsi qu'en Colombie-Britannique, au Canada. Malgré une demande grandissante pour les services des sages-femmes à travers tout le pays, l'accès à ces professionnelles de la santé reste limité au Québec, même si leur profession a été légalisée il y a plus de 20 ans. Le documentaire met en lumière la réalité quotidienne des sages-femmes et permet une meilleure prise de conscience de leur expertise, souvent méconnue. Le film soulève également un questionnement plus vaste sur les conditions actuelles d'accouchement.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Sages et rebelles
 Titre anglais : Sages and Rebels
@@ -553,7 +569,7 @@
 Pays :  Canada
 Genre : Documentaire
 Durée : 52 minutes
-Date de sortie : 4 mars 2023[5],[6]</t>
+Date de sortie : 4 mars 2023,</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Naoual Alazouer
 Maude Lapointe
